--- a/raw/CO2 Correction Calculations_NOV3_Jul152020_updatedApr222022.xlsx
+++ b/raw/CO2 Correction Calculations_NOV3_Jul152020_updatedApr222022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/009957537bd189b1/Documents/R/R/R Datasets/FTC_transect/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EB6A9E-7098-43BE-85E4-AFEE501D21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C1EB6A9E-7098-43BE-85E4-AFEE501D21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3243ACC2-90FE-4141-998A-78B63F3BA74B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9048" yWindow="372" windowWidth="10848" windowHeight="8952" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Day4" sheetId="2" r:id="rId4"/>
     <sheet name="Day7" sheetId="3" r:id="rId5"/>
     <sheet name="Day14" sheetId="5" r:id="rId6"/>
-    <sheet name="Example_Day16" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,21 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="123">
   <si>
     <t>JAR</t>
   </si>
   <si>
     <t>TRT</t>
-  </si>
-  <si>
-    <t>OM1 C0</t>
-  </si>
-  <si>
-    <t>OM2 C2</t>
-  </si>
-  <si>
-    <t>OM0 C0</t>
   </si>
   <si>
     <t>m/d/yyyy, hh:mm</t>
@@ -191,336 +181,6 @@
     <t>day 0/flush measure</t>
   </si>
   <si>
-    <t>SAMPLE ID</t>
-  </si>
-  <si>
-    <t>OM0 V1</t>
-  </si>
-  <si>
-    <t>WF01445</t>
-  </si>
-  <si>
-    <t>OM1 V1</t>
-  </si>
-  <si>
-    <t>WF11328</t>
-  </si>
-  <si>
-    <t>WF01111</t>
-  </si>
-  <si>
-    <t>OU22103</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>OUR1</t>
-  </si>
-  <si>
-    <t>OM2 C0</t>
-  </si>
-  <si>
-    <t>CC20C6</t>
-  </si>
-  <si>
-    <t>CC10C12</t>
-  </si>
-  <si>
-    <t>CA00A6</t>
-  </si>
-  <si>
-    <t>OM0 C2</t>
-  </si>
-  <si>
-    <t>CC02C3</t>
-  </si>
-  <si>
-    <t>IC002R2P2</t>
-  </si>
-  <si>
-    <t>IC021R1P5</t>
-  </si>
-  <si>
-    <t>ICR3</t>
-  </si>
-  <si>
-    <t>WMR4</t>
-  </si>
-  <si>
-    <t>WMR3</t>
-  </si>
-  <si>
-    <t>WMR2</t>
-  </si>
-  <si>
-    <t>WMR1</t>
-  </si>
-  <si>
-    <t>WM01422</t>
-  </si>
-  <si>
-    <t>WM01318</t>
-  </si>
-  <si>
-    <t>WM11316</t>
-  </si>
-  <si>
-    <t>WM11413</t>
-  </si>
-  <si>
-    <t>WM11110</t>
-  </si>
-  <si>
-    <t>WM11209</t>
-  </si>
-  <si>
-    <t>WM01103</t>
-  </si>
-  <si>
-    <t>WM01206</t>
-  </si>
-  <si>
-    <t>OMR1</t>
-  </si>
-  <si>
-    <t>OMR3</t>
-  </si>
-  <si>
-    <t>OMR4</t>
-  </si>
-  <si>
-    <t>OM01101</t>
-  </si>
-  <si>
-    <t>OMR2</t>
-  </si>
-  <si>
-    <t>OM11102</t>
-  </si>
-  <si>
-    <t>OM11423</t>
-  </si>
-  <si>
-    <t>OM01424</t>
-  </si>
-  <si>
-    <t>OM01314</t>
-  </si>
-  <si>
-    <t>OM11209</t>
-  </si>
-  <si>
-    <t>OM01210</t>
-  </si>
-  <si>
-    <t>OM11313</t>
-  </si>
-  <si>
-    <t>OM1 C2</t>
-  </si>
-  <si>
-    <t>IC121R1P9</t>
-  </si>
-  <si>
-    <t>IC022R2P1</t>
-  </si>
-  <si>
-    <t>IC023R3P1</t>
-  </si>
-  <si>
-    <t>IC001R1P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR2 </t>
-  </si>
-  <si>
-    <t>IC221R1P1</t>
-  </si>
-  <si>
-    <t>IC103R3P4</t>
-  </si>
-  <si>
-    <t>IC203R3P8</t>
-  </si>
-  <si>
-    <t>IC003R3P9</t>
-  </si>
-  <si>
-    <t>IC101R1P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR1 </t>
-  </si>
-  <si>
-    <t>IC102R2P5</t>
-  </si>
-  <si>
-    <t>IC202R2P6</t>
-  </si>
-  <si>
-    <t>IC122R2P4</t>
-  </si>
-  <si>
-    <t>IC223R3P3</t>
-  </si>
-  <si>
-    <t>IC123R3P2</t>
-  </si>
-  <si>
-    <t>IC201R1P4</t>
-  </si>
-  <si>
-    <t>IC222R2P9</t>
-  </si>
-  <si>
-    <t>CCRCR1</t>
-  </si>
-  <si>
-    <t>CC00C11</t>
-  </si>
-  <si>
-    <t>CC12C9</t>
-  </si>
-  <si>
-    <t>CC22C7</t>
-  </si>
-  <si>
-    <t>CBRBR1</t>
-  </si>
-  <si>
-    <t>CB12B12</t>
-  </si>
-  <si>
-    <t>CB02B9</t>
-  </si>
-  <si>
-    <t>CB22B7</t>
-  </si>
-  <si>
-    <t>CB00B6</t>
-  </si>
-  <si>
-    <t>CB10B5</t>
-  </si>
-  <si>
-    <t>CB20B4</t>
-  </si>
-  <si>
-    <t>CARAR1</t>
-  </si>
-  <si>
-    <t>CA22A8</t>
-  </si>
-  <si>
-    <t>CA12A7</t>
-  </si>
-  <si>
-    <t>CA10A3</t>
-  </si>
-  <si>
-    <t>CA20A2</t>
-  </si>
-  <si>
-    <t>CA02A1</t>
-  </si>
-  <si>
-    <t>WFR4</t>
-  </si>
-  <si>
-    <t>WFR3</t>
-  </si>
-  <si>
-    <t>WFR2</t>
-  </si>
-  <si>
-    <t>WFR1</t>
-  </si>
-  <si>
-    <t>OM2 V1</t>
-  </si>
-  <si>
-    <t>WF21443</t>
-  </si>
-  <si>
-    <t>WF11442</t>
-  </si>
-  <si>
-    <t>WF21334</t>
-  </si>
-  <si>
-    <t>WF01333</t>
-  </si>
-  <si>
-    <t>WF01220</t>
-  </si>
-  <si>
-    <t>WF11215</t>
-  </si>
-  <si>
-    <t>WF21214</t>
-  </si>
-  <si>
-    <t>WF11108</t>
-  </si>
-  <si>
-    <t>WF21105</t>
-  </si>
-  <si>
-    <t>OU12105</t>
-  </si>
-  <si>
-    <t>OU12313</t>
-  </si>
-  <si>
-    <t>OU02216</t>
-  </si>
-  <si>
-    <t>OU00118</t>
-  </si>
-  <si>
-    <t>OU20119</t>
-  </si>
-  <si>
-    <t>OU12210</t>
-  </si>
-  <si>
-    <t>OU22212</t>
-  </si>
-  <si>
-    <t>OU10226</t>
-  </si>
-  <si>
-    <t>OUR2</t>
-  </si>
-  <si>
-    <t>OU22329</t>
-  </si>
-  <si>
-    <t>OU02102</t>
-  </si>
-  <si>
-    <t>OU10123</t>
-  </si>
-  <si>
-    <t>OU00328</t>
-  </si>
-  <si>
-    <t>OU10327</t>
-  </si>
-  <si>
-    <t>OUR3</t>
-  </si>
-  <si>
-    <t>OU20325</t>
-  </si>
-  <si>
-    <t>OU00222</t>
-  </si>
-  <si>
-    <t>OU20224</t>
-  </si>
-  <si>
     <t>Last Measure Time [Day1]</t>
   </si>
   <si>
@@ -567,18 +227,6 @@
   </si>
   <si>
     <t>Day 8</t>
-  </si>
-  <si>
-    <t>Last Measure Time [Day14]</t>
-  </si>
-  <si>
-    <t>Day16_TIME</t>
-  </si>
-  <si>
-    <t>Day16_12C</t>
-  </si>
-  <si>
-    <t>Day16_13C</t>
   </si>
   <si>
     <t>Day 14</t>
@@ -1188,7 +836,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,43 +859,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1255,19 +903,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1301,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -1347,19 +995,19 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -1393,19 +1041,19 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -1439,19 +1087,19 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>22</v>
@@ -1485,19 +1133,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1531,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1540,10 +1188,10 @@
         <v>43823</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1577,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1586,10 +1234,10 @@
         <v>43823</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1623,19 +1271,19 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1669,19 +1317,19 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -1715,19 +1363,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1761,19 +1409,19 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -1807,19 +1455,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <v>24</v>
@@ -1853,19 +1501,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1899,19 +1547,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>21</v>
@@ -1945,19 +1593,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -1991,19 +1639,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -2037,19 +1685,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -2083,19 +1731,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2129,19 +1777,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>18</v>
@@ -2175,19 +1823,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2221,19 +1869,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2267,19 +1915,19 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -2313,19 +1961,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -2359,19 +2007,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G26">
         <v>28</v>
@@ -2405,19 +2053,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="G27">
         <v>29</v>
@@ -2451,19 +2099,19 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G28">
         <v>25</v>
@@ -2497,19 +2145,19 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="G29">
         <v>26</v>
@@ -2543,19 +2191,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G30">
         <v>27</v>
@@ -2589,19 +2237,19 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2643,29 +2291,29 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2673,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>3228.0199421677398</v>
@@ -2693,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2467.83306483871</v>
@@ -2713,13 +2361,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>1624.5797647419399</v>
@@ -2733,13 +2381,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1766.49889763226</v>
@@ -2753,13 +2401,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>1033.05868492581</v>
@@ -2773,13 +2421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>1261.9374390451601</v>
@@ -2793,13 +2441,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>2051.5211516999998</v>
@@ -2813,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>2587.7394122161299</v>
@@ -2833,13 +2481,13 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>1681.9829926290299</v>
@@ -2853,13 +2501,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>1343.7464307258099</v>
@@ -2873,13 +2521,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>1737.2691603645201</v>
@@ -2893,13 +2541,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <v>1951.0295093709699</v>
@@ -2913,13 +2561,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>1171.52544416774</v>
@@ -2933,13 +2581,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>1104.5984263580599</v>
@@ -2953,13 +2601,13 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>2037.0946395451599</v>
@@ -2973,13 +2621,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>2269.48954149355</v>
@@ -2993,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>1645.5747168258099</v>
@@ -3013,13 +2661,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>2568.9335311516102</v>
@@ -3033,13 +2681,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>2704.3605440032302</v>
@@ -3053,13 +2701,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>1709.36622579032</v>
@@ -3073,13 +2721,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>1265.7526789741901</v>
@@ -3093,13 +2741,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>3112.6967355322599</v>
@@ -3113,13 +2761,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>1202.00591111935</v>
@@ -3133,13 +2781,13 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>2258.2155187193498</v>
@@ -3153,13 +2801,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>1213.3764452354801</v>
@@ -3173,13 +2821,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>2603.5050518774201</v>
@@ -3193,13 +2841,13 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>3054.6354690225799</v>
@@ -3213,13 +2861,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>1048.8138484451599</v>
@@ -3233,13 +2881,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>1201.6028888580599</v>
@@ -3253,13 +2901,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3279,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AF33"/>
+    <sheetView topLeftCell="W3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,17 +2955,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1">
         <v>8.2059999999999994E-2</v>
@@ -3326,13 +2974,13 @@
         <v>296</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3341,67 +2989,67 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3409,97 +3057,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="X3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -3507,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10">
         <v>43644.375</v>
@@ -3619,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="AH4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -3633,13 +3281,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10">
         <v>43644.376388888886</v>
@@ -3745,13 +3393,13 @@
         <v>2</v>
       </c>
       <c r="AH5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -3759,13 +3407,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10">
         <v>43644.37777777778</v>
@@ -3871,13 +3519,13 @@
         <v>3</v>
       </c>
       <c r="AH6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -3885,13 +3533,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E7" s="10">
         <v>43644.379166493054</v>
@@ -3997,13 +3645,13 @@
         <v>4</v>
       </c>
       <c r="AH7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -4011,13 +3659,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10">
         <v>43644.380555324075</v>
@@ -4123,13 +3771,13 @@
         <v>5</v>
       </c>
       <c r="AH8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI8" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -4137,13 +3785,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10">
         <v>43644.381944155095</v>
@@ -4249,13 +3897,13 @@
         <v>6</v>
       </c>
       <c r="AH9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI9" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -4263,13 +3911,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10">
         <v>43644.383332986108</v>
@@ -4375,13 +4023,13 @@
         <v>7</v>
       </c>
       <c r="AH10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI10" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -4389,13 +4037,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>43644.384721817129</v>
@@ -4501,13 +4149,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI11" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -4515,13 +4163,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10">
         <v>43644.386110648149</v>
@@ -4627,13 +4275,13 @@
         <v>17</v>
       </c>
       <c r="AH12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI12" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -4641,13 +4289,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10">
         <v>43644.387499479169</v>
@@ -4753,13 +4401,13 @@
         <v>18</v>
       </c>
       <c r="AH13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI13" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -4767,13 +4415,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10">
         <v>43644.388888310183</v>
@@ -4879,13 +4527,13 @@
         <v>21</v>
       </c>
       <c r="AH14" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI14" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
@@ -4893,13 +4541,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10">
         <v>43644.390277141203</v>
@@ -5005,13 +4653,13 @@
         <v>24</v>
       </c>
       <c r="AH15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI15" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AJ15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
@@ -5019,13 +4667,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10">
         <v>43644.391665972224</v>
@@ -5131,13 +4779,13 @@
         <v>25</v>
       </c>
       <c r="AH16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI16" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="AJ16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
@@ -5145,13 +4793,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E17" s="10">
         <v>43644.393054803244</v>
@@ -5257,13 +4905,13 @@
         <v>26</v>
       </c>
       <c r="AH17" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
@@ -5271,13 +4919,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10">
         <v>43644.394443634257</v>
@@ -5383,13 +5031,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI18" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="AJ18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
@@ -5397,13 +5045,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10">
         <v>43644.395832465278</v>
@@ -5509,13 +5157,13 @@
         <v>9</v>
       </c>
       <c r="AH19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI19" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
@@ -5523,13 +5171,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10">
         <v>43644.397221296298</v>
@@ -5635,13 +5283,13 @@
         <v>10</v>
       </c>
       <c r="AH20" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI20" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
@@ -5649,13 +5297,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E21" s="10">
         <v>43644.398610127311</v>
@@ -5761,13 +5409,13 @@
         <v>11</v>
       </c>
       <c r="AH21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI21" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
@@ -5775,13 +5423,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10">
         <v>43644.399998958332</v>
@@ -5887,13 +5535,13 @@
         <v>12</v>
       </c>
       <c r="AH22" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI22" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="AJ22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
@@ -5901,13 +5549,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E23" s="10">
         <v>43644.401387789352</v>
@@ -6013,13 +5661,13 @@
         <v>13</v>
       </c>
       <c r="AH23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI23" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
@@ -6027,13 +5675,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10">
         <v>43644.402776620373</v>
@@ -6139,13 +5787,13 @@
         <v>14</v>
       </c>
       <c r="AH24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI24" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
@@ -6153,13 +5801,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10">
         <v>43644.404165451386</v>
@@ -6265,13 +5913,13 @@
         <v>15</v>
       </c>
       <c r="AH25" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI25" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="AJ25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
@@ -6279,13 +5927,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E26" s="10">
         <v>43644.405554282406</v>
@@ -6391,13 +6039,13 @@
         <v>16</v>
       </c>
       <c r="AH26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI26" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
@@ -6405,13 +6053,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10">
         <v>43644.406943113427</v>
@@ -6517,13 +6165,13 @@
         <v>19</v>
       </c>
       <c r="AH27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI27" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
@@ -6531,13 +6179,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E28" s="10">
         <v>43644.408331944447</v>
@@ -6643,13 +6291,13 @@
         <v>20</v>
       </c>
       <c r="AH28" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="AI28" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
@@ -6657,13 +6305,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E29" s="10">
         <v>43644.40972077546</v>
@@ -6769,13 +6417,13 @@
         <v>22</v>
       </c>
       <c r="AH29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI29" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
@@ -6783,13 +6431,13 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E30" s="10">
         <v>43644.411109606481</v>
@@ -6895,13 +6543,13 @@
         <v>23</v>
       </c>
       <c r="AH30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI30" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
@@ -6909,13 +6557,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E31" s="10">
         <v>43644.412498437501</v>
@@ -7021,13 +6669,13 @@
         <v>27</v>
       </c>
       <c r="AH31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI31" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="AJ31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
@@ -7035,13 +6683,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E32" s="10">
         <v>43644.413887268522</v>
@@ -7147,13 +6795,13 @@
         <v>28</v>
       </c>
       <c r="AH32" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI32" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
@@ -7161,13 +6809,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E33" s="10">
         <v>43644.415276099535</v>
@@ -7273,13 +6921,13 @@
         <v>29</v>
       </c>
       <c r="AH33" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="AI33" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AJ33" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
@@ -7359,10 +7007,10 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="F39" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="I39" s="11"/>
       <c r="AE39">
@@ -7377,7 +7025,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="F40">
         <v>1536</v>
@@ -7398,7 +7046,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="F41">
         <v>588.478410017957</v>
@@ -7419,7 +7067,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="F42">
         <v>641.85657860000003</v>
@@ -7440,7 +7088,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="F43">
         <v>473.66327212217755</v>
@@ -8393,7 +8041,7 @@
   <dimension ref="A1:AG117"/>
   <sheetViews>
     <sheetView topLeftCell="S3" zoomScale="49" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4:AG33"/>
+      <selection activeCell="S3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8421,17 +8069,17 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1">
         <v>8.2059999999999994E-2</v>
@@ -8440,13 +8088,13 @@
         <v>296</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8456,67 +8104,67 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8524,98 +8172,98 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="Y3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="AD3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -8623,16 +8271,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10">
         <v>43645.416666666664</v>
@@ -8740,16 +8388,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10">
         <v>43645.418055555558</v>
@@ -8857,16 +8505,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F6" s="10">
         <v>43645.419444502317</v>
@@ -8974,16 +8622,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F7" s="10">
         <v>43645.420833449076</v>
@@ -9091,16 +8739,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10">
         <v>43645.422222395835</v>
@@ -9208,16 +8856,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F9" s="10">
         <v>43645.423611342594</v>
@@ -9325,16 +8973,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F10" s="10">
         <v>43645.425000289353</v>
@@ -9442,16 +9090,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10">
         <v>43645.426389236112</v>
@@ -9559,16 +9207,16 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F12" s="10">
         <v>43645.427778182871</v>
@@ -9676,16 +9324,16 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F13" s="10">
         <v>43645.429167129631</v>
@@ -9793,16 +9441,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F14" s="10">
         <v>43645.43055607639</v>
@@ -9910,16 +9558,16 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10">
         <v>43645.431945023149</v>
@@ -10027,16 +9675,16 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F16" s="10">
         <v>43645.433333969908</v>
@@ -10144,16 +9792,16 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F17" s="10">
         <v>43645.434722916667</v>
@@ -10261,16 +9909,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="F18" s="10">
         <v>43645.436111863426</v>
@@ -10378,16 +10026,16 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F19" s="10">
         <v>43645.437500810185</v>
@@ -10495,16 +10143,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F20" s="10">
         <v>43645.438889756944</v>
@@ -10612,16 +10260,16 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F21" s="10">
         <v>43645.440278703703</v>
@@ -10729,16 +10377,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F22" s="10">
         <v>43645.441667650462</v>
@@ -10846,16 +10494,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F23" s="10">
         <v>43645.443056597222</v>
@@ -10963,16 +10611,16 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F24" s="10">
         <v>43645.444445543981</v>
@@ -11080,16 +10728,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F25" s="10">
         <v>43645.44583449074</v>
@@ -11197,16 +10845,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F26" s="10">
         <v>43645.447223437499</v>
@@ -11314,16 +10962,16 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F27" s="10">
         <v>43645.448612384258</v>
@@ -11431,16 +11079,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F28" s="10">
         <v>43645.450001331017</v>
@@ -11548,16 +11196,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F29" s="10">
         <v>43645.451390277776</v>
@@ -11665,16 +11313,16 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F30" s="10">
         <v>43645.452779224535</v>
@@ -11782,16 +11430,16 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F31" s="10">
         <v>43645.454168171294</v>
@@ -11899,16 +11547,16 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F32" s="10">
         <v>43645.455557118054</v>
@@ -12016,16 +11664,16 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="F33" s="10">
         <v>43645.456946064813</v>
@@ -12954,7 +12602,7 @@
   <dimension ref="A1:AF117"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="49" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AF33"/>
+      <selection activeCell="M1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12981,17 +12629,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="J1" s="1" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1">
         <v>8.2059999999999994E-2</v>
@@ -13000,13 +12648,13 @@
         <v>296</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -13015,67 +12663,67 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13083,97 +12731,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="X3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -13181,13 +12829,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10">
         <v>43648.370833333334</v>
@@ -13293,13 +12941,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10">
         <v>43648.37222222222</v>
@@ -13405,13 +13053,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10">
         <v>43648.373611111114</v>
@@ -13517,13 +13165,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E7" s="10">
         <v>43648.374999826388</v>
@@ -13629,13 +13277,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10">
         <v>43648.376388657409</v>
@@ -13741,13 +13389,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10">
         <v>43648.377777488429</v>
@@ -13853,13 +13501,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10">
         <v>43648.379166319442</v>
@@ -13965,13 +13613,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>43648.380555150463</v>
@@ -14077,13 +13725,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10">
         <v>43648.381943981483</v>
@@ -14189,13 +13837,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10">
         <v>43648.383332812497</v>
@@ -14301,13 +13949,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10">
         <v>43648.384721643517</v>
@@ -14413,13 +14061,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10">
         <v>43648.386110474537</v>
@@ -14525,13 +14173,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10">
         <v>43648.387499305558</v>
@@ -14637,13 +14285,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E17" s="10">
         <v>43648.388888136571</v>
@@ -14749,13 +14397,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10">
         <v>43648.390276967591</v>
@@ -14861,13 +14509,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10">
         <v>43648.397222222222</v>
@@ -14973,13 +14621,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10">
         <v>43648.398611111108</v>
@@ -15085,13 +14733,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E21" s="10">
         <v>43648.399999942128</v>
@@ -15197,13 +14845,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10">
         <v>43648.401388831022</v>
@@ -15309,13 +14957,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E23" s="10">
         <v>43648.402777719908</v>
@@ -15421,13 +15069,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10">
         <v>43648.404166608794</v>
@@ -15533,13 +15181,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10">
         <v>43648.405555497688</v>
@@ -15645,13 +15293,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E26" s="10">
         <v>43648.406944386574</v>
@@ -15757,13 +15405,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10">
         <v>43648.40833327546</v>
@@ -15869,13 +15517,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E28" s="10">
         <v>43648.409722164353</v>
@@ -15981,13 +15629,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E29" s="10">
         <v>43648.411111053239</v>
@@ -16093,13 +15741,13 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E30" s="10">
         <v>43648.412499942133</v>
@@ -16205,13 +15853,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E31" s="10">
         <v>43648.413888831019</v>
@@ -16317,13 +15965,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E32" s="10">
         <v>43648.415277719905</v>
@@ -16429,13 +16077,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E33" s="10">
         <v>43648.416666608799</v>
@@ -16563,7 +16211,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="E36" s="10" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="F36" s="10"/>
       <c r="I36" s="11"/>
@@ -17279,8 +16927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AF33"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17307,17 +16955,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1">
         <v>8.2059999999999994E-2</v>
@@ -17326,13 +16974,13 @@
         <v>296</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17341,67 +16989,67 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -17409,97 +17057,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="X3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="AC3" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -17507,13 +17155,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10">
         <v>43652.427083333336</v>
@@ -17621,13 +17269,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10">
         <v>43652.428472222222</v>
@@ -17735,13 +17383,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E6" s="10">
         <v>43652.429860995369</v>
@@ -17849,13 +17497,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E7" s="10">
         <v>43652.43124982639</v>
@@ -17963,13 +17611,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10">
         <v>43652.43263865741</v>
@@ -18077,13 +17725,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E9" s="10">
         <v>43652.434027488423</v>
@@ -18191,13 +17839,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10">
         <v>43652.435416319444</v>
@@ -18305,13 +17953,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E11" s="10">
         <v>43652.436805150464</v>
@@ -18419,13 +18067,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E12" s="10">
         <v>43652.438193981485</v>
@@ -18533,13 +18181,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E13" s="10">
         <v>43652.439582812498</v>
@@ -18647,13 +18295,13 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10">
         <v>43652.440971643518</v>
@@ -18761,13 +18409,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E15" s="10">
         <v>43652.442360474539</v>
@@ -18875,13 +18523,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10">
         <v>43652.443749305552</v>
@@ -18989,13 +18637,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E17" s="10">
         <v>43652.445138136572</v>
@@ -19103,13 +18751,13 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10">
         <v>43652.446526967593</v>
@@ -19217,13 +18865,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10">
         <v>43652.447915798613</v>
@@ -19331,13 +18979,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E20" s="10">
         <v>43652.449304629627</v>
@@ -19445,13 +19093,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E21" s="10">
         <v>43652.450693460647</v>
@@ -19559,13 +19207,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E22" s="10">
         <v>43652.452082291667</v>
@@ -19673,13 +19321,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E23" s="10">
         <v>43652.453471122688</v>
@@ -19787,13 +19435,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10">
         <v>43652.454859953701</v>
@@ -19901,13 +19549,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10">
         <v>43652.456248784722</v>
@@ -20015,13 +19663,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E26" s="10">
         <v>43652.457637615742</v>
@@ -20129,13 +19777,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10">
         <v>43652.459026446762</v>
@@ -20243,13 +19891,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E28" s="10">
         <v>43652.460415277776</v>
@@ -20357,13 +20005,13 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E29" s="10">
         <v>43652.461804108796</v>
@@ -20471,13 +20119,13 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E30" s="10">
         <v>43652.463192939817</v>
@@ -20585,13 +20233,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E31" s="10">
         <v>43652.464581770837</v>
@@ -20699,13 +20347,13 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E32" s="10">
         <v>43652.46597060185</v>
@@ -20813,13 +20461,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="E33" s="10">
         <v>43652.467359432871</v>
@@ -21657,2943 +21305,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB117"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="16" max="17" width="13.5546875" customWidth="1"/>
-    <col min="24" max="24" width="13.5546875" customWidth="1"/>
-    <col min="27" max="27" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="I1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1">
-        <v>8.2059999999999994E-2</v>
-      </c>
-      <c r="W1" s="1">
-        <v>296</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="10">
-        <v>43725.353472222225</v>
-      </c>
-      <c r="E4" s="10">
-        <v>43727.355555555558</v>
-      </c>
-      <c r="F4">
-        <v>613</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <f>(E4-D4)*24</f>
-        <v>48.049999999988358</v>
-      </c>
-      <c r="I4">
-        <v>599</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <f>(F4-I4)</f>
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <f>(G4-J4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>L4/K4</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>940</f>
-        <v>940</v>
-      </c>
-      <c r="O4">
-        <f>10.78</f>
-        <v>10.78</v>
-      </c>
-      <c r="P4">
-        <f>10/2.65</f>
-        <v>3.7735849056603774</v>
-      </c>
-      <c r="R4">
-        <f>Q4-10</f>
-        <v>-10</v>
-      </c>
-      <c r="T4">
-        <f>R4+S4</f>
-        <v>-10</v>
-      </c>
-      <c r="U4">
-        <f>N4-(O4+P4+T4)</f>
-        <v>935.44641509433961</v>
-      </c>
-      <c r="V4">
-        <f>0.08206</f>
-        <v>8.2059999999999994E-2</v>
-      </c>
-      <c r="W4">
-        <v>296</v>
-      </c>
-      <c r="X4">
-        <f>12*U4*K4/(V4*W4*1000*10)</f>
-        <v>0.64700103144637522</v>
-      </c>
-      <c r="Y4">
-        <f>13*U4*L4/(V4*W4*1000*10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f>X4+Y4</f>
-        <v>0.64700103144637522</v>
-      </c>
-      <c r="AA4">
-        <f>Z4/H4</f>
-        <v>1.3465161944776941E-2</v>
-      </c>
-      <c r="AB4">
-        <f>AA4*24</f>
-        <v>0.32316388667464657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10">
-        <v>43725.354861111111</v>
-      </c>
-      <c r="E5" s="10">
-        <v>43727.356944444444</v>
-      </c>
-      <c r="G5">
-        <v>42</v>
-      </c>
-      <c r="I5">
-        <v>3428</v>
-      </c>
-      <c r="J5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43725.356249999997</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43727.35833333333</v>
-      </c>
-      <c r="F6">
-        <v>3146</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>2343</v>
-      </c>
-      <c r="J6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10">
-        <v>43725.357638888891</v>
-      </c>
-      <c r="E7" s="10">
-        <v>43727.359722222223</v>
-      </c>
-      <c r="F7">
-        <v>4578</v>
-      </c>
-      <c r="G7">
-        <v>51</v>
-      </c>
-      <c r="I7">
-        <v>3299</v>
-      </c>
-      <c r="J7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>43725.359027777777</v>
-      </c>
-      <c r="E8" s="10">
-        <v>43727.361111111109</v>
-      </c>
-      <c r="F8">
-        <v>2519</v>
-      </c>
-      <c r="G8">
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <v>1033</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="10">
-        <v>43725.36041666667</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43727.362500000003</v>
-      </c>
-      <c r="F9">
-        <v>4798</v>
-      </c>
-      <c r="G9">
-        <v>53</v>
-      </c>
-      <c r="I9">
-        <v>3100</v>
-      </c>
-      <c r="J9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>43725.361805555556</v>
-      </c>
-      <c r="E10" s="10">
-        <v>43727.363888888889</v>
-      </c>
-      <c r="F10">
-        <v>2752</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <v>2342</v>
-      </c>
-      <c r="J10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="10">
-        <v>43725.363194444442</v>
-      </c>
-      <c r="E11" s="10">
-        <v>43727.365277777775</v>
-      </c>
-      <c r="F11">
-        <v>3138</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>3699</v>
-      </c>
-      <c r="J11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10">
-        <v>43725.364583333336</v>
-      </c>
-      <c r="E12" s="10">
-        <v>43727.366666666669</v>
-      </c>
-      <c r="F12">
-        <v>4335</v>
-      </c>
-      <c r="G12">
-        <v>48</v>
-      </c>
-      <c r="I12">
-        <v>2721</v>
-      </c>
-      <c r="J12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10">
-        <v>43725.365972222222</v>
-      </c>
-      <c r="E13" s="10">
-        <v>43727.368055555555</v>
-      </c>
-      <c r="F13">
-        <v>2521</v>
-      </c>
-      <c r="G13">
-        <v>28</v>
-      </c>
-      <c r="I13">
-        <v>2347</v>
-      </c>
-      <c r="J13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10">
-        <v>43725.367361111108</v>
-      </c>
-      <c r="E14" s="10">
-        <v>43727.369444444441</v>
-      </c>
-      <c r="F14">
-        <v>3599</v>
-      </c>
-      <c r="G14">
-        <v>40</v>
-      </c>
-      <c r="I14">
-        <v>4112</v>
-      </c>
-      <c r="J14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10">
-        <v>43725.368750000001</v>
-      </c>
-      <c r="E15" s="10">
-        <v>43727.370833333334</v>
-      </c>
-      <c r="F15">
-        <v>1117</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>2271</v>
-      </c>
-      <c r="J15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="10">
-        <v>43725.370138888888</v>
-      </c>
-      <c r="E16" s="10">
-        <v>43727.37222222222</v>
-      </c>
-      <c r="F16">
-        <v>3749</v>
-      </c>
-      <c r="G16">
-        <v>41</v>
-      </c>
-      <c r="I16">
-        <v>3974</v>
-      </c>
-      <c r="J16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="10">
-        <v>43725.371527777781</v>
-      </c>
-      <c r="E17" s="10">
-        <v>43727.373611111114</v>
-      </c>
-      <c r="F17">
-        <v>2818</v>
-      </c>
-      <c r="G17">
-        <v>31</v>
-      </c>
-      <c r="I17">
-        <v>2793</v>
-      </c>
-      <c r="J17">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="10">
-        <v>43725.376388888886</v>
-      </c>
-      <c r="E18" s="10">
-        <v>43727.436805555553</v>
-      </c>
-      <c r="F18">
-        <v>5204</v>
-      </c>
-      <c r="G18">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>2505</v>
-      </c>
-      <c r="J18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
-        <v>43725.37777777778</v>
-      </c>
-      <c r="E19" s="10">
-        <v>43727.417361111111</v>
-      </c>
-      <c r="F19">
-        <v>5217</v>
-      </c>
-      <c r="G19">
-        <v>58</v>
-      </c>
-      <c r="I19">
-        <v>4259</v>
-      </c>
-      <c r="J19">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="10">
-        <v>43725.379166666666</v>
-      </c>
-      <c r="E20" s="10">
-        <v>43727.418749999997</v>
-      </c>
-      <c r="F20">
-        <v>5460</v>
-      </c>
-      <c r="G20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>4548</v>
-      </c>
-      <c r="J20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="10">
-        <v>43725.380555555559</v>
-      </c>
-      <c r="E21" s="10">
-        <v>43727.420138888891</v>
-      </c>
-      <c r="F21">
-        <v>1853</v>
-      </c>
-      <c r="G21">
-        <v>21</v>
-      </c>
-      <c r="I21">
-        <v>1806</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="10">
-        <v>43725.381944444445</v>
-      </c>
-      <c r="E22" s="10">
-        <v>43727.421527777777</v>
-      </c>
-      <c r="F22">
-        <v>9124</v>
-      </c>
-      <c r="G22">
-        <v>101</v>
-      </c>
-      <c r="I22">
-        <v>7682</v>
-      </c>
-      <c r="J22">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="10">
-        <v>43725.383333333331</v>
-      </c>
-      <c r="E23" s="10">
-        <v>43727.42291666667</v>
-      </c>
-      <c r="F23">
-        <v>3762</v>
-      </c>
-      <c r="G23">
-        <v>41</v>
-      </c>
-      <c r="I23">
-        <v>3195</v>
-      </c>
-      <c r="J23">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="10">
-        <v>43725.384722222225</v>
-      </c>
-      <c r="E24" s="10">
-        <v>43727.424305555556</v>
-      </c>
-      <c r="F24">
-        <v>3484</v>
-      </c>
-      <c r="G24">
-        <v>38</v>
-      </c>
-      <c r="I24">
-        <v>2972</v>
-      </c>
-      <c r="J24">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="10">
-        <v>43725.386111111111</v>
-      </c>
-      <c r="E25" s="10">
-        <v>43727.425694444442</v>
-      </c>
-      <c r="F25">
-        <v>3875</v>
-      </c>
-      <c r="G25">
-        <v>43</v>
-      </c>
-      <c r="I25">
-        <v>3383</v>
-      </c>
-      <c r="J25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="10">
-        <v>43725.387499999997</v>
-      </c>
-      <c r="E26" s="10">
-        <v>43727.427083333336</v>
-      </c>
-      <c r="F26">
-        <v>7387</v>
-      </c>
-      <c r="G26">
-        <v>81</v>
-      </c>
-      <c r="I26">
-        <v>6276</v>
-      </c>
-      <c r="J26">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="10">
-        <v>43725.388888888891</v>
-      </c>
-      <c r="E27" s="10">
-        <v>43727.428472222222</v>
-      </c>
-      <c r="F27">
-        <v>4279</v>
-      </c>
-      <c r="G27">
-        <v>47</v>
-      </c>
-      <c r="I27">
-        <v>3599</v>
-      </c>
-      <c r="J27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>25</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="10">
-        <v>43725.390277777777</v>
-      </c>
-      <c r="E28" s="10">
-        <v>43727.429861111108</v>
-      </c>
-      <c r="F28">
-        <v>2837</v>
-      </c>
-      <c r="G28">
-        <v>31</v>
-      </c>
-      <c r="I28">
-        <v>2455</v>
-      </c>
-      <c r="J28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="10">
-        <v>43725.39166666667</v>
-      </c>
-      <c r="E29" s="10">
-        <v>43727.431250000001</v>
-      </c>
-      <c r="F29">
-        <v>2562</v>
-      </c>
-      <c r="G29">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>2265</v>
-      </c>
-      <c r="J29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="10">
-        <v>43725.393055555556</v>
-      </c>
-      <c r="E30" s="10">
-        <v>43727.432638888888</v>
-      </c>
-      <c r="F30">
-        <v>5200</v>
-      </c>
-      <c r="G30">
-        <v>57</v>
-      </c>
-      <c r="I30">
-        <v>5070</v>
-      </c>
-      <c r="J30">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="10">
-        <v>43725.394444444442</v>
-      </c>
-      <c r="E31" s="10">
-        <v>43727.434027777781</v>
-      </c>
-      <c r="F31">
-        <v>4177</v>
-      </c>
-      <c r="G31">
-        <v>46</v>
-      </c>
-      <c r="I31">
-        <v>3568</v>
-      </c>
-      <c r="J31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>29</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="10">
-        <v>43725.401388888888</v>
-      </c>
-      <c r="E32" s="10">
-        <v>43727.472916666666</v>
-      </c>
-      <c r="F32">
-        <v>3816</v>
-      </c>
-      <c r="G32">
-        <v>42</v>
-      </c>
-      <c r="I32">
-        <v>3290</v>
-      </c>
-      <c r="J32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="10">
-        <v>43725.402777777781</v>
-      </c>
-      <c r="E33" s="10">
-        <v>43727.474305555559</v>
-      </c>
-      <c r="F33">
-        <v>4547</v>
-      </c>
-      <c r="G33">
-        <v>50</v>
-      </c>
-      <c r="I33">
-        <v>3911</v>
-      </c>
-      <c r="J33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>31</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="10">
-        <v>43725.404166666667</v>
-      </c>
-      <c r="E34" s="10">
-        <v>43727.475694444445</v>
-      </c>
-      <c r="F34">
-        <v>3138</v>
-      </c>
-      <c r="G34">
-        <v>35</v>
-      </c>
-      <c r="I34">
-        <v>2710</v>
-      </c>
-      <c r="J34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="10">
-        <v>43725.405555555553</v>
-      </c>
-      <c r="E35" s="10">
-        <v>43727.477083333331</v>
-      </c>
-      <c r="F35">
-        <v>4768</v>
-      </c>
-      <c r="G35">
-        <v>53</v>
-      </c>
-      <c r="I35">
-        <v>4052</v>
-      </c>
-      <c r="J35">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="10">
-        <v>43725.406944444447</v>
-      </c>
-      <c r="E36" s="10">
-        <v>43727.478472222225</v>
-      </c>
-      <c r="F36">
-        <v>2225</v>
-      </c>
-      <c r="G36">
-        <v>25</v>
-      </c>
-      <c r="I36">
-        <v>1939</v>
-      </c>
-      <c r="J36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="10">
-        <v>43725.408333333333</v>
-      </c>
-      <c r="E37" s="10">
-        <v>43727.479861111111</v>
-      </c>
-      <c r="F37">
-        <v>2542</v>
-      </c>
-      <c r="G37">
-        <v>28</v>
-      </c>
-      <c r="I37">
-        <v>2316</v>
-      </c>
-      <c r="J37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="10">
-        <v>43725.429861111108</v>
-      </c>
-      <c r="E38" s="10">
-        <v>43727.481249999997</v>
-      </c>
-      <c r="F38">
-        <v>6497</v>
-      </c>
-      <c r="G38">
-        <v>72</v>
-      </c>
-      <c r="I38">
-        <v>5172</v>
-      </c>
-      <c r="J38">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>36</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="10">
-        <v>43725.411111111112</v>
-      </c>
-      <c r="E39" s="10">
-        <v>43727.492361111108</v>
-      </c>
-      <c r="F39">
-        <v>2516</v>
-      </c>
-      <c r="G39">
-        <v>28</v>
-      </c>
-      <c r="I39">
-        <v>2240</v>
-      </c>
-      <c r="J39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>37</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="10">
-        <v>43725.412499999999</v>
-      </c>
-      <c r="E40" s="10">
-        <v>43727.484027777777</v>
-      </c>
-      <c r="F40">
-        <v>3876</v>
-      </c>
-      <c r="G40">
-        <v>43</v>
-      </c>
-      <c r="I40">
-        <v>3438</v>
-      </c>
-      <c r="J40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="10">
-        <v>43725.413888888892</v>
-      </c>
-      <c r="E41" s="10">
-        <v>43727.48541666667</v>
-      </c>
-      <c r="F41">
-        <v>2247</v>
-      </c>
-      <c r="G41">
-        <v>25</v>
-      </c>
-      <c r="I41">
-        <v>1955</v>
-      </c>
-      <c r="J41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>39</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="10">
-        <v>43725.415277777778</v>
-      </c>
-      <c r="E42" s="10">
-        <v>43727.486805555556</v>
-      </c>
-      <c r="F42">
-        <v>4104</v>
-      </c>
-      <c r="G42">
-        <v>45</v>
-      </c>
-      <c r="I42">
-        <v>3584</v>
-      </c>
-      <c r="J42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>40</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="10">
-        <v>43725.431250000001</v>
-      </c>
-      <c r="E43" s="10">
-        <v>43727.488194444442</v>
-      </c>
-      <c r="F43">
-        <v>15534</v>
-      </c>
-      <c r="G43">
-        <v>172</v>
-      </c>
-      <c r="I43">
-        <v>14648</v>
-      </c>
-      <c r="J43">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>41</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="10">
-        <v>43725.418055555558</v>
-      </c>
-      <c r="E44" s="10">
-        <v>43727.493750000001</v>
-      </c>
-      <c r="F44">
-        <v>4408</v>
-      </c>
-      <c r="G44">
-        <v>49</v>
-      </c>
-      <c r="I44">
-        <v>3685</v>
-      </c>
-      <c r="J44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10">
-        <v>43725.419444444444</v>
-      </c>
-      <c r="E45" s="10">
-        <v>43727.490972222222</v>
-      </c>
-      <c r="F45">
-        <v>2056</v>
-      </c>
-      <c r="G45">
-        <v>23</v>
-      </c>
-      <c r="I45">
-        <v>1550</v>
-      </c>
-      <c r="J45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>43</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="10">
-        <v>43725.434027777781</v>
-      </c>
-      <c r="E46" s="10">
-        <v>43727.522916666669</v>
-      </c>
-      <c r="F46">
-        <v>5694</v>
-      </c>
-      <c r="G46">
-        <v>63</v>
-      </c>
-      <c r="I46">
-        <v>4930</v>
-      </c>
-      <c r="J46">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>44</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="10">
-        <v>43725.435416666667</v>
-      </c>
-      <c r="E47" s="10">
-        <v>43727.524305555555</v>
-      </c>
-      <c r="F47">
-        <v>2382</v>
-      </c>
-      <c r="G47">
-        <v>26</v>
-      </c>
-      <c r="I47">
-        <v>2123</v>
-      </c>
-      <c r="J47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>45</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10">
-        <v>43725.436805555553</v>
-      </c>
-      <c r="E48" s="10">
-        <v>43727.525694444441</v>
-      </c>
-      <c r="F48">
-        <v>4583</v>
-      </c>
-      <c r="G48">
-        <v>51</v>
-      </c>
-      <c r="I48">
-        <v>3836</v>
-      </c>
-      <c r="J48">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>46</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="10">
-        <v>43725.438194444447</v>
-      </c>
-      <c r="E49" s="10">
-        <v>43727.527083333334</v>
-      </c>
-      <c r="F49">
-        <v>3765</v>
-      </c>
-      <c r="G49">
-        <v>42</v>
-      </c>
-      <c r="I49">
-        <v>3214</v>
-      </c>
-      <c r="J49">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10">
-        <v>43725.439583333333</v>
-      </c>
-      <c r="E50" s="10">
-        <v>43727.52847222222</v>
-      </c>
-      <c r="F50">
-        <v>4033</v>
-      </c>
-      <c r="G50">
-        <v>45</v>
-      </c>
-      <c r="I50">
-        <v>3412</v>
-      </c>
-      <c r="J50">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>48</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="10">
-        <v>43725.440972222219</v>
-      </c>
-      <c r="E51" s="10">
-        <v>43727.529861111114</v>
-      </c>
-      <c r="F51">
-        <v>6294</v>
-      </c>
-      <c r="G51">
-        <v>69</v>
-      </c>
-      <c r="I51">
-        <v>5546</v>
-      </c>
-      <c r="J51">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>49</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="10">
-        <v>43725.461111111108</v>
-      </c>
-      <c r="E52" s="10">
-        <v>43727.53125</v>
-      </c>
-      <c r="F52">
-        <v>3900</v>
-      </c>
-      <c r="G52">
-        <v>43</v>
-      </c>
-      <c r="I52">
-        <v>3360</v>
-      </c>
-      <c r="J52">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>50</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="10">
-        <v>43725.443749999999</v>
-      </c>
-      <c r="E53" s="10">
-        <v>43727.532638888886</v>
-      </c>
-      <c r="F53">
-        <v>5941</v>
-      </c>
-      <c r="G53">
-        <v>66</v>
-      </c>
-      <c r="I53">
-        <v>4869</v>
-      </c>
-      <c r="J53">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="10">
-        <v>43725.445138888892</v>
-      </c>
-      <c r="E54" s="10">
-        <v>43727.53402777778</v>
-      </c>
-      <c r="F54">
-        <v>8214</v>
-      </c>
-      <c r="G54">
-        <v>91</v>
-      </c>
-      <c r="I54">
-        <v>7050</v>
-      </c>
-      <c r="J54">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>52</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="10">
-        <v>43725.446527777778</v>
-      </c>
-      <c r="E55" s="10">
-        <v>43727.535416666666</v>
-      </c>
-      <c r="F55">
-        <v>15857</v>
-      </c>
-      <c r="G55">
-        <v>174</v>
-      </c>
-      <c r="I55">
-        <v>12031</v>
-      </c>
-      <c r="J55">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>53</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="10">
-        <v>43725.447916666664</v>
-      </c>
-      <c r="E56" s="10">
-        <v>43727.536805555559</v>
-      </c>
-      <c r="F56">
-        <v>2162</v>
-      </c>
-      <c r="G56">
-        <v>24</v>
-      </c>
-      <c r="I56">
-        <v>1983</v>
-      </c>
-      <c r="J56">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>54</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="10">
-        <v>43725.449305555558</v>
-      </c>
-      <c r="E57" s="10">
-        <v>43727.538194444445</v>
-      </c>
-      <c r="F57">
-        <v>3795</v>
-      </c>
-      <c r="G57">
-        <v>42</v>
-      </c>
-      <c r="I57">
-        <v>3560</v>
-      </c>
-      <c r="J57">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>55</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="10">
-        <v>43725.450694444444</v>
-      </c>
-      <c r="E58" s="10">
-        <v>43727.539583333331</v>
-      </c>
-      <c r="F58">
-        <v>5327</v>
-      </c>
-      <c r="G58">
-        <v>59</v>
-      </c>
-      <c r="I58">
-        <v>4374</v>
-      </c>
-      <c r="J58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>56</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="10">
-        <v>43725.45208333333</v>
-      </c>
-      <c r="E59" s="10">
-        <v>43727.540972222225</v>
-      </c>
-      <c r="F59">
-        <v>7842</v>
-      </c>
-      <c r="G59">
-        <v>87</v>
-      </c>
-      <c r="I59">
-        <v>7171</v>
-      </c>
-      <c r="J59">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>57</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="10">
-        <v>43725.46597222222</v>
-      </c>
-      <c r="E60" s="10">
-        <v>43727.670138888891</v>
-      </c>
-      <c r="F60">
-        <v>3237</v>
-      </c>
-      <c r="G60">
-        <v>36</v>
-      </c>
-      <c r="I60">
-        <v>2809</v>
-      </c>
-      <c r="J60">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>58</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="10">
-        <v>43725.467361111114</v>
-      </c>
-      <c r="E61" s="10">
-        <v>43727.647916666669</v>
-      </c>
-      <c r="F61">
-        <v>3297</v>
-      </c>
-      <c r="G61">
-        <v>36</v>
-      </c>
-      <c r="I61">
-        <v>2201</v>
-      </c>
-      <c r="J61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>59</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="10">
-        <v>43725.46875</v>
-      </c>
-      <c r="E62" s="10">
-        <v>43727.671527777777</v>
-      </c>
-      <c r="F62">
-        <v>2848</v>
-      </c>
-      <c r="G62">
-        <v>31</v>
-      </c>
-      <c r="I62">
-        <v>2389</v>
-      </c>
-      <c r="J62">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>60</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="10">
-        <v>43725.470138888886</v>
-      </c>
-      <c r="E63" s="10">
-        <v>43727.650694444441</v>
-      </c>
-      <c r="F63">
-        <v>3099</v>
-      </c>
-      <c r="G63">
-        <v>34</v>
-      </c>
-      <c r="I63">
-        <v>2774</v>
-      </c>
-      <c r="J63">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>61</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="10">
-        <v>43725.47152777778</v>
-      </c>
-      <c r="E64" s="10">
-        <v>43727.652083333334</v>
-      </c>
-      <c r="F64">
-        <v>2510</v>
-      </c>
-      <c r="G64">
-        <v>28</v>
-      </c>
-      <c r="I64">
-        <v>2157</v>
-      </c>
-      <c r="J64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>62</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="10">
-        <v>43725.472916666666</v>
-      </c>
-      <c r="E65" s="10">
-        <v>43727.65347222222</v>
-      </c>
-      <c r="F65">
-        <v>3590</v>
-      </c>
-      <c r="G65">
-        <v>40</v>
-      </c>
-      <c r="I65">
-        <v>3053</v>
-      </c>
-      <c r="J65">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>63</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="10">
-        <v>43725.474305555559</v>
-      </c>
-      <c r="E66" s="10">
-        <v>43727.67291666667</v>
-      </c>
-      <c r="F66">
-        <v>2681</v>
-      </c>
-      <c r="G66">
-        <v>30</v>
-      </c>
-      <c r="I66">
-        <v>2327</v>
-      </c>
-      <c r="J66">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>64</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="10">
-        <v>43725.475694444445</v>
-      </c>
-      <c r="E67" s="10">
-        <v>43727.65625</v>
-      </c>
-      <c r="F67">
-        <v>5449</v>
-      </c>
-      <c r="G67">
-        <v>60</v>
-      </c>
-      <c r="I67">
-        <v>4688</v>
-      </c>
-      <c r="J67">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>65</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="10">
-        <v>43725.477083333331</v>
-      </c>
-      <c r="E68" s="10">
-        <v>43727.657638888886</v>
-      </c>
-      <c r="F68">
-        <v>3999</v>
-      </c>
-      <c r="G68">
-        <v>44</v>
-      </c>
-      <c r="I68">
-        <v>3480</v>
-      </c>
-      <c r="J68">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>66</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="10">
-        <v>43725.478472222225</v>
-      </c>
-      <c r="E69" s="10">
-        <v>43727.65902777778</v>
-      </c>
-      <c r="F69">
-        <v>3633</v>
-      </c>
-      <c r="G69">
-        <v>40</v>
-      </c>
-      <c r="I69">
-        <v>3175</v>
-      </c>
-      <c r="J69">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>67</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="10">
-        <v>43725.479861111111</v>
-      </c>
-      <c r="E70" s="10">
-        <v>43727.660416666666</v>
-      </c>
-      <c r="F70">
-        <v>3411</v>
-      </c>
-      <c r="G70">
-        <v>38</v>
-      </c>
-      <c r="I70">
-        <v>3129</v>
-      </c>
-      <c r="J70">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>68</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="10">
-        <v>43725.481249999997</v>
-      </c>
-      <c r="E71" s="10">
-        <v>43727.661805555559</v>
-      </c>
-      <c r="F71">
-        <v>5076</v>
-      </c>
-      <c r="G71">
-        <v>56</v>
-      </c>
-      <c r="I71">
-        <v>4340</v>
-      </c>
-      <c r="J71">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>69</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="10">
-        <v>43725.482638888891</v>
-      </c>
-      <c r="E72" s="10">
-        <v>43727.663194444445</v>
-      </c>
-      <c r="F72">
-        <v>4707</v>
-      </c>
-      <c r="G72">
-        <v>52</v>
-      </c>
-      <c r="I72">
-        <v>4164</v>
-      </c>
-      <c r="J72">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>70</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="10">
-        <v>43725.484027777777</v>
-      </c>
-      <c r="E73" s="10">
-        <v>43727.664583333331</v>
-      </c>
-      <c r="F73">
-        <v>2980</v>
-      </c>
-      <c r="G73">
-        <v>33</v>
-      </c>
-      <c r="I73">
-        <v>2667</v>
-      </c>
-      <c r="J73">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>71</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="10">
-        <v>43725.488888888889</v>
-      </c>
-      <c r="E74" s="10">
-        <v>43727.704861111109</v>
-      </c>
-      <c r="F74">
-        <v>6404</v>
-      </c>
-      <c r="G74">
-        <v>71</v>
-      </c>
-      <c r="I74">
-        <v>5430</v>
-      </c>
-      <c r="J74">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>72</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="10">
-        <v>43725.490277777775</v>
-      </c>
-      <c r="E75" s="10">
-        <v>43727.706250000003</v>
-      </c>
-      <c r="F75">
-        <v>10651</v>
-      </c>
-      <c r="G75">
-        <v>118</v>
-      </c>
-      <c r="I75">
-        <v>8785</v>
-      </c>
-      <c r="J75">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>73</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="10">
-        <v>43725.491666666669</v>
-      </c>
-      <c r="E76" s="10">
-        <v>43727.707638888889</v>
-      </c>
-      <c r="F76">
-        <v>2988</v>
-      </c>
-      <c r="G76">
-        <v>33</v>
-      </c>
-      <c r="I76">
-        <v>2664</v>
-      </c>
-      <c r="J76">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>74</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="10">
-        <v>43725.493055555555</v>
-      </c>
-      <c r="E77" s="10">
-        <v>43727.709027777775</v>
-      </c>
-      <c r="F77">
-        <v>3528</v>
-      </c>
-      <c r="G77">
-        <v>39</v>
-      </c>
-      <c r="I77">
-        <v>3041</v>
-      </c>
-      <c r="J77">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>75</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="10">
-        <v>43725.494444444441</v>
-      </c>
-      <c r="E78" s="10">
-        <v>43727.710416666669</v>
-      </c>
-      <c r="F78">
-        <v>14382</v>
-      </c>
-      <c r="G78">
-        <v>159</v>
-      </c>
-      <c r="I78">
-        <v>11760</v>
-      </c>
-      <c r="J78">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>76</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="10">
-        <v>43725.495833333334</v>
-      </c>
-      <c r="E79" s="10">
-        <v>43727.711805555555</v>
-      </c>
-      <c r="F79">
-        <v>2537</v>
-      </c>
-      <c r="G79">
-        <v>28</v>
-      </c>
-      <c r="I79">
-        <v>2149</v>
-      </c>
-      <c r="J79">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <v>77</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" s="10">
-        <v>43725.49722222222</v>
-      </c>
-      <c r="E80" s="10">
-        <v>43727.713194444441</v>
-      </c>
-      <c r="F80">
-        <v>14601</v>
-      </c>
-      <c r="G80">
-        <v>161</v>
-      </c>
-      <c r="I80">
-        <v>12569</v>
-      </c>
-      <c r="J80">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <v>78</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="10">
-        <v>43725.498611111114</v>
-      </c>
-      <c r="E81" s="10">
-        <v>43727.714583333334</v>
-      </c>
-      <c r="F81">
-        <v>4939</v>
-      </c>
-      <c r="G81">
-        <v>55</v>
-      </c>
-      <c r="I81">
-        <v>4218</v>
-      </c>
-      <c r="J81">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>1</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>2</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>3</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>4</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <v>5</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>6</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>7</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>8</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>9</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>10</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>11</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>12</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>13</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
-        <v>14</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
-        <v>15</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
-        <v>16</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
-        <v>17</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
-        <v>18</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>19</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>20</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <v>21</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <v>22</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
-        <v>23</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
-        <v>24</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>25</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>26</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
-        <v>27</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>28</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>29</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <v>30</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
-        <v>31</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <v>32</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
-        <v>33</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
-        <v>34</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <v>35</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
-        <v>36</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>